--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P20_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P20_trail3 Features.xlsx
@@ -6395,7 +6395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6406,29 +6406,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6449,115 +6447,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6574,72 +6562,66 @@
         <v>3.356999307055912e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.993417480459224</v>
+        <v>2.314474502614611e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>16.76909538406032</v>
+        <v>1.443691332592313e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.314474502614611e-07</v>
+        <v>-0.1130705781424816</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.443691332592313e-06</v>
+        <v>0.351120074436073</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1130705781424816</v>
+        <v>0.1357221444723515</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.351120074436073</v>
+        <v>1.796415894337824</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1357221444723515</v>
+        <v>1.857085237093696</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.774125169223884</v>
+        <v>8.032422985455069</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.857085237093696</v>
+        <v>3.80305733616037e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>8.032422985455069</v>
+        <v>2501396232.164785</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.80305733616037e-17</v>
+        <v>4.37287393804368e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>2501396232.164785</v>
+        <v>237.9566551981301</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.37287393804368e-08</v>
+        <v>2.768567945359425e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>237.9566551981301</v>
+        <v>4.861979039805976</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>2.768567945359425e-05</v>
+        <v>1.578037909377386</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>4.861979039805976</v>
+        <v>0.0006544573519754739</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.578037909377386</v>
+        <v>5.390768474901676</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0006544573519754739</v>
+        <v>0.9576961870900149</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>5.390768474901676</v>
+        <v>1.517344337894884</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9576961870900149</v>
+        <v>211</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.517344337894884</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>211</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>1.097505329617526</v>
       </c>
     </row>
@@ -6654,72 +6636,66 @@
         <v>2.36472876697813e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.954506111898064</v>
+        <v>1.642748172835757e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>16.58010752100783</v>
+        <v>1.440491964246152e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.642748172835757e-07</v>
+        <v>-0.1129943277487011</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.440491964246152e-06</v>
+        <v>0.3541942293524268</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1129943277487011</v>
+        <v>0.137849129972239</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3541942293524268</v>
+        <v>1.796241274258722</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.137849129972239</v>
+        <v>1.837006934649111</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.774548330248596</v>
+        <v>8.029115003511736</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.837006934649111</v>
+        <v>3.806191688216137e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>8.029115003511736</v>
+        <v>2510553844.257169</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.806191688216137e-17</v>
+        <v>4.355096833626406e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>2510553844.257169</v>
+        <v>239.8997177024407</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.355096833626406e-08</v>
+        <v>2.986516926165881e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>239.8997177024407</v>
+        <v>5.002012796310196</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>2.986516926165881e-05</v>
+        <v>1.852184049966294</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>5.002012796310196</v>
+        <v>0.0007472304775606258</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.852184049966294</v>
+        <v>5.386934739820679</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0007472304775606258</v>
+        <v>0.9569576638352405</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>5.386934739820679</v>
+        <v>1.498702394854042</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9569576638352405</v>
+        <v>213</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.498702394854042</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>213</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>1.081498487000678</v>
       </c>
     </row>
@@ -6734,72 +6710,66 @@
         <v>1.668417440858182e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3.858381852417353</v>
+        <v>1.161075675973008e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>15.94902586005625</v>
+        <v>1.438247593713076e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.161075675973008e-07</v>
+        <v>-0.1119878259303506</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.438247593713076e-06</v>
+        <v>0.3528705126280766</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.1119878259303506</v>
+        <v>0.1366799075484279</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3528705126280766</v>
+        <v>1.796278819618107</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1366799075484279</v>
+        <v>1.841923488148021</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.775412778684046</v>
+        <v>8.061859771745807</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.841923488148021</v>
+        <v>3.775335345329876e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>8.061859771745807</v>
+        <v>2515150760.297999</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.775335345329876e-17</v>
+        <v>4.335047817509996e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>2515150760.297999</v>
+        <v>238.827085240015</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.335047817509996e-08</v>
+        <v>2.94926757227427e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>238.827085240015</v>
+        <v>4.201053738534171</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>2.94926757227427e-05</v>
+        <v>2.432304114233065</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>4.201053738534171</v>
+        <v>0.000520511884075446</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>2.432304114233065</v>
+        <v>5.408259947274371</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.000520511884075446</v>
+        <v>0.9568324287895794</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>5.408259947274371</v>
+        <v>1.586617629515821</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9568324287895794</v>
+        <v>213</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.586617629515821</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>213</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.9789091078198189</v>
       </c>
     </row>
@@ -6814,72 +6784,66 @@
         <v>1.18772595704905e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>3.694428287068961</v>
+        <v>8.216006191648594e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>14.85806403870705</v>
+        <v>1.436679508117035e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>8.216006191648594e-08</v>
+        <v>-0.1100348698346856</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.436679508117035e-06</v>
+        <v>0.346872462040408</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.1100348698346856</v>
+        <v>0.1320663785303476</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.346872462040408</v>
+        <v>1.79739884199011</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1320663785303476</v>
+        <v>1.858647713304821</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.775923624858162</v>
+        <v>8.05006054993096</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.858647713304821</v>
+        <v>3.786410706844234e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>8.05006054993096</v>
+        <v>2502299817.396916</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.786410706844234e-17</v>
+        <v>4.362237979136602e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>2502299817.396916</v>
+        <v>237.0862721078609</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.362237979136602e-08</v>
+        <v>2.768625405741739e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>237.0862721078609</v>
+        <v>3.911437066321189</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>2.768625405741739e-05</v>
+        <v>1.817934155009289</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>3.911437066321189</v>
+        <v>0.000423581412040875</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.817934155009289</v>
+        <v>5.410809965251527</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.000423581412040875</v>
+        <v>0.9578239356521115</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>5.410809965251527</v>
+        <v>1.569887162336403</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9578239356521115</v>
+        <v>211</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.569887162336403</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>211</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.9691789663379243</v>
       </c>
     </row>
@@ -6894,72 +6858,66 @@
         <v>8.593718786414399e-09</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>3.448640543949313</v>
+        <v>5.873959339126603e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>13.33661689747391</v>
+        <v>1.43557700459891e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.873959339126603e-08</v>
+        <v>-0.1077723999132171</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.43557700459891e-06</v>
+        <v>0.3403191910158023</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.1077723999132171</v>
+        <v>0.1271063470791903</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3403191910158023</v>
+        <v>1.797854441116247</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.1271063470791903</v>
+        <v>1.865046839964573</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.773005726891339</v>
+        <v>8.060725084705563</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.865046839964573</v>
+        <v>3.776398308166401e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>8.060725084705563</v>
+        <v>2445766575.722321</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.776398308166401e-17</v>
+        <v>4.450038481835588e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>2445766575.722321</v>
+        <v>225.8956175315845</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.450038481835588e-08</v>
+        <v>2.691328650923033e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>225.8956175315845</v>
+        <v>4.302962112723946</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>2.691328650923033e-05</v>
+        <v>1.842034914043216</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>4.302962112723946</v>
+        <v>0.0004983124973161981</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.842034914043216</v>
+        <v>5.39265100319898</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0004983124973161981</v>
+        <v>0.9571814777368548</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>5.39265100319898</v>
+        <v>1.542285858097954</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9571814777368548</v>
+        <v>195</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.542285858097954</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>195</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>1.016299919348323</v>
       </c>
     </row>
@@ -6974,72 +6932,66 @@
         <v>6.357767448079401e-09</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>3.087373121834213</v>
+        <v>4.27089667922089e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>11.27425449621645</v>
+        <v>1.434787387182925e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.27089667922089e-08</v>
+        <v>-0.1057734487665978</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.434787387182925e-06</v>
+        <v>0.3381847398814257</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.1057734487665978</v>
+        <v>0.1252779094575801</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.3381847398814257</v>
+        <v>1.791064998518192</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.1252779094575801</v>
+        <v>1.865395204541285</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.770288875490659</v>
+        <v>8.061476417710532</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.865395204541285</v>
+        <v>3.77569441713664e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>8.061476417710532</v>
+        <v>2404492760.285748</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.77569441713664e-17</v>
+        <v>4.485524501055254e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>2404492760.285748</v>
+        <v>218.2949984635881</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.485524501055254e-08</v>
+        <v>2.697340795460779e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>218.2949984635881</v>
+        <v>5.173060002248735</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>2.697340795460779e-05</v>
+        <v>1.867820615537996</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>5.173060002248735</v>
+        <v>0.0007218232264907206</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.867820615537996</v>
+        <v>5.430883319166813</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0007218232264907206</v>
+        <v>0.9555111364811543</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>5.430883319166813</v>
+        <v>1.553117234796407</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9555111364811543</v>
+        <v>160</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.553117234796407</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>160</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>1.147644254600207</v>
       </c>
     </row>
@@ -7054,72 +7006,66 @@
         <v>4.837882349529264e-09</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>2.555878851613657</v>
+        <v>3.163588775282985e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>8.303548434226734</v>
+        <v>1.434205676994118e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.163588775282985e-08</v>
+        <v>-0.104013244574067</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.434205676994118e-06</v>
+        <v>0.3437872939519629</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.104013244574067</v>
+        <v>0.1287668311928984</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.3437872939519629</v>
+        <v>1.788541643551932</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.1287668311928984</v>
+        <v>1.849289226546686</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.768044094929011</v>
+        <v>8.075703547493243</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.849289226546686</v>
+        <v>3.762402701620739e-17</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>8.075703547493243</v>
+        <v>2393127585.069004</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.762402701620739e-17</v>
+        <v>4.499157746468457e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>2393127585.069004</v>
+        <v>215.4750465592773</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.499157746468457e-08</v>
+        <v>3.510512928847368e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>215.4750465592773</v>
+        <v>7.658058495773053</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>3.510512928847368e-05</v>
+        <v>1.540435579994783</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.658058495773053</v>
+        <v>0.002058770494889674</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.540435579994783</v>
+        <v>5.50210519189931</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.002058770494889674</v>
+        <v>0.9548892066646941</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>5.50210519189931</v>
+        <v>1.528213569924198</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9548892066646941</v>
+        <v>156</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.528213569924198</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>156</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>1.558484363994978</v>
       </c>
     </row>
@@ -7134,72 +7080,66 @@
         <v>3.835693861591877e-09</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1.866857703709749</v>
+        <v>2.350357226716426e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>4.405301810746889</v>
+        <v>1.433766090792956e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.350357226716426e-08</v>
+        <v>-0.09985587809539692</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.433766090792956e-06</v>
+        <v>0.3474466055611841</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.09985587809539692</v>
+        <v>0.1304633950880444</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.3474466055611841</v>
+        <v>1.80142543825715</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.1304633950880444</v>
+        <v>1.849180699117033</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.788484016354074</v>
+        <v>7.869565843414875</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.849180699117033</v>
+        <v>3.621820574760995e-17</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>7.869565843414875</v>
+        <v>2467434463.668875</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.621820574760995e-17</v>
+        <v>4.382139611524882e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>2467434463.668875</v>
+        <v>220.504869366872</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.382139611524882e-08</v>
+        <v>0.0001405285376862595</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>220.504869366872</v>
+        <v>9.610632800301495</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001405285376862595</v>
+        <v>1.744038427474579</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.610632800301495</v>
+        <v>0.01297981478887746</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.744038427474579</v>
+        <v>4.704214261997444</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01297981478887746</v>
+        <v>0.9563347649359843</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>4.704214261997444</v>
+        <v>1.512953902335504</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9563347649359843</v>
+        <v>197</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.512953902335504</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>197</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>2.537008205792843</v>
       </c>
     </row>
@@ -7214,72 +7154,66 @@
         <v>3.24891199353231e-09</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1.273007571836583</v>
+        <v>1.758471647558241e-08</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1.269260645581719</v>
+        <v>1.43343056479929e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.758471647558241e-08</v>
+        <v>-0.0903250561573813</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.43343056479929e-06</v>
+        <v>0.3350614950694614</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.0903250561573813</v>
+        <v>0.1202345852238613</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.3350614950694614</v>
+        <v>1.827532857569471</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.1202345852238613</v>
+        <v>2.128051508495037</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.827210269213318</v>
+        <v>8.02921728323628</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.128051508495037</v>
+        <v>3.479221326906409e-17</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>8.02921728323628</v>
+        <v>2614233651.501824</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.479221326906409e-17</v>
+        <v>4.2125974747545e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>2614233651.501824</v>
+        <v>237.7775557321416</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>4.2125974747545e-08</v>
+        <v>0.0001811123903242606</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>237.7775557321416</v>
+        <v>10.03546428556952</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001811123903242606</v>
+        <v>1.647241246682529</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.03546428556952</v>
+        <v>0.01823992725090862</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.647241246682529</v>
+        <v>4.349553961540332</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01823992725090862</v>
+        <v>0.9579844151338544</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>4.349553961540332</v>
+        <v>1.556246875221877</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9579844151338544</v>
+        <v>239</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.556246875221877</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>239</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>4.266390878159387</v>
       </c>
     </row>
@@ -7294,72 +7228,66 @@
         <v>2.978431755240155e-09</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1.004904866405915</v>
+        <v>1.372748298884016e-08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.2458066584379988</v>
+        <v>1.43317159302864e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.372748298884016e-08</v>
+        <v>-0.07691191660712007</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.43317159302864e-06</v>
+        <v>0.3100976277156666</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.07691191660712007</v>
+        <v>0.1019536880047366</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.3100976277156666</v>
+        <v>1.927169819415205</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.1019536880047366</v>
+        <v>3.194079735092417</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.952758599637317</v>
+        <v>5.067747186956603</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>3.194079735092417</v>
+        <v>4.438736582271949e-18</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>5.067747186956603</v>
+        <v>18824301988.1294</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>4.438736582271949e-18</v>
+        <v>6.427017392267001e-09</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>18824301988.1294</v>
+        <v>1572.885595748983</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>6.427017392267001e-09</v>
+        <v>0.0001227344277771239</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>1572.885595748983</v>
+        <v>12.69323696142628</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001227344277771239</v>
+        <v>1.030461936251201</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>12.69323696142628</v>
+        <v>0.0197747580050821</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.030461936251201</v>
+        <v>4.738945627499579</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.0197747580050821</v>
+        <v>0.9611454239270483</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>4.738945627499579</v>
+        <v>0.7851376028797992</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9611454239270483</v>
+        <v>254</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.7851376028797992</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>254</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>5.789522597203467</v>
       </c>
     </row>
@@ -7374,72 +7302,66 @@
         <v>2.907770801490162e-09</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.9407013433654338</v>
+        <v>1.281174821426837e-08</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.3526819502990417</v>
+        <v>1.432966357938803e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.281174821426837e-08</v>
+        <v>-0.06344570918796881</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.432966357938803e-06</v>
+        <v>0.2837970582716432</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.06344570918796881</v>
+        <v>0.0844936533406853</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2837970582716432</v>
+        <v>1.927029230338708</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.0844936533406853</v>
+        <v>2.978735232020739</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.95500406136407</v>
+        <v>4.61742086201475</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.978735232020739</v>
+        <v>3.660476605679539e-18</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.61742086201475</v>
+        <v>22531811374.44247</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.660476605679539e-18</v>
+        <v>5.370747911881183e-09</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>22531811374.44247</v>
+        <v>1858.360001531497</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>5.370747911881183e-09</v>
+        <v>0.000123271743115039</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>1858.360001531497</v>
+        <v>13.12425191232288</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.000123271743115039</v>
+        <v>1.01252568455545</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>13.12425191232288</v>
+        <v>0.02123306321714984</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.01252568455545</v>
+        <v>4.751326717614793</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.02123306321714984</v>
+        <v>0.9613747574067854</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>4.751326717614793</v>
+        <v>0.782121578878362</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9613747574067854</v>
+        <v>287</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.782121578878362</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>287</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>5.983009898471149</v>
       </c>
     </row>
@@ -7454,72 +7376,66 @@
         <v>2.947157789774639e-09</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.8915086019677958</v>
+        <v>1.348004333244358e-08</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.5311678340192914</v>
+        <v>1.43279927842697e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.348004333244358e-08</v>
+        <v>-0.05140479644594254</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.43279927842697e-06</v>
+        <v>0.2588797827610589</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05140479644594254</v>
+        <v>0.06961900051324958</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2588797827610589</v>
+        <v>1.92814371024624</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.06961900051324958</v>
+        <v>3.136221613897427</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.953626854515336</v>
+        <v>5.270494565678017</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>3.136221613897427</v>
+        <v>3.283409455860197e-18</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.270494565678017</v>
+        <v>25739786941.07066</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.283409455860197e-18</v>
+        <v>4.70414359837215e-09</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>25739786941.07066</v>
+        <v>2175.379041613004</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>4.70414359837215e-09</v>
+        <v>0.0001180947199346709</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>2175.379041613004</v>
+        <v>12.34589219343001</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001180947199346709</v>
+        <v>1.123293911220024</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>12.34589219343001</v>
+        <v>0.0180001216903942</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.123293911220024</v>
+        <v>5.008221790047102</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.0180001216903942</v>
+        <v>0.9611128882722305</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>5.008221790047102</v>
+        <v>0.792206106266039</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9611128882722305</v>
+        <v>298</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.792206106266039</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>298</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>6.337923456354402</v>
       </c>
     </row>
@@ -7534,72 +7450,66 @@
         <v>3.038724705526042e-09</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.8003987935452006</v>
+        <v>1.39310343890487e-08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.5457165280694554</v>
+        <v>1.432661040959989e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.39310343890487e-08</v>
+        <v>-0.04172563668082189</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.432661040959989e-06</v>
+        <v>0.2394162823676342</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.04172563668082189</v>
+        <v>0.05904507673196926</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.2394162823676342</v>
+        <v>1.93170653032381</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.05904507673196926</v>
+        <v>3.119378935660111</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.959518898498127</v>
+        <v>5.124941531044012</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>3.119378935660111</v>
+        <v>3.472561566654713e-18</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.124941531044012</v>
+        <v>24379140440.06798</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3.472561566654713e-18</v>
+        <v>4.94520717425639e-09</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>24379140440.06798</v>
+        <v>2063.890883330324</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.94520717425639e-09</v>
+        <v>0.0001065746650519533</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>2063.890883330324</v>
+        <v>10.83419004230805</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001065746650519533</v>
+        <v>1.336137415419766</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>10.83419004230805</v>
+        <v>0.01250969942690618</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.336137415419766</v>
+        <v>5.391895235212148</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01250969942690618</v>
+        <v>0.9610732831626058</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>5.391895235212148</v>
+        <v>0.788090906932251</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9610732831626058</v>
+        <v>297</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.788090906932251</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>297</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>6.977180624140825</v>
       </c>
     </row>
@@ -7614,72 +7524,66 @@
         <v>3.144592177328478e-09</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.6958503650287775</v>
+        <v>1.407636652292916e-08</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.4717486143661334</v>
+        <v>1.432542239972858e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.407636652292916e-08</v>
+        <v>-0.03590820134603627</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.432542239972858e-06</v>
+        <v>0.2283643929119406</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.03590820134603627</v>
+        <v>0.05343868643038278</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.2283643929119406</v>
+        <v>1.932845171622732</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.05343868643038278</v>
+        <v>3.401209200601307</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.957034821545676</v>
+        <v>4.63985250806051</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>3.401209200601307</v>
+        <v>4.236619233827796e-18</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.63985250806051</v>
+        <v>18854388847.67199</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>4.236619233827796e-18</v>
+        <v>6.409779000525619e-09</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>18854388847.67199</v>
+        <v>1506.067208460067</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>6.409779000525619e-09</v>
+        <v>8.912575264432917e-05</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>1506.067208460067</v>
+        <v>10.43830673153592</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>8.912575264432917e-05</v>
+        <v>1.290981412845712</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.43830673153592</v>
+        <v>0.009710985808259635</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.290981412845712</v>
+        <v>5.674806361649165</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.009710985808259635</v>
+        <v>0.9611894088650598</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>5.674806361649165</v>
+        <v>0.7941591134642642</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9611894088650598</v>
+        <v>287</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.7941591134642642</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>287</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>7.686750340309787</v>
       </c>
     </row>
@@ -7694,72 +7598,66 @@
         <v>3.243720128247779e-09</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.6183807840713207</v>
+        <v>1.407636652292916e-08</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.3728761395971296</v>
+        <v>1.432430703769442e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.407636652292916e-08</v>
+        <v>-0.03477073154758491</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.432430703769442e-06</v>
+        <v>0.2209725851601644</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.03477073154758491</v>
+        <v>0.05003353806923975</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.2209725851601644</v>
+        <v>1.931979905340534</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.05003353806923975</v>
+        <v>3.603674789618903</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.955715619926045</v>
+        <v>4.419517528064057</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>3.603674789618903</v>
+        <v>4.669582610232527e-18</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.419517528064057</v>
+        <v>16969215759.97865</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>4.669582610232527e-18</v>
+        <v>7.111036203979811e-09</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>16969215759.97865</v>
+        <v>1344.626314814228</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>7.111036203979811e-09</v>
+        <v>8.776023867221756e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>1344.626314814228</v>
+        <v>11.65884808451507</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>8.776023867221756e-05</v>
+        <v>1.096249843287238</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>11.65884808451507</v>
+        <v>0.01192913854702208</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.096249843287238</v>
+        <v>5.580690901595792</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01192913854702208</v>
+        <v>0.9598647562619045</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>5.580690901595792</v>
+        <v>0.7814439249899325</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9598647562619045</v>
+        <v>246</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.7814439249899325</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>246</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>7.728104586964392</v>
       </c>
     </row>
@@ -7774,72 +7672,66 @@
         <v>3.323879967176043e-09</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.5901272537474758</v>
+        <v>1.407636652292916e-08</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.2992647516602616</v>
+        <v>1.432309730837053e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.407636652292916e-08</v>
+        <v>-0.03997098705813299</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.432309730837053e-06</v>
+        <v>0.2063746209900134</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.03997098705813299</v>
+        <v>0.04415995445526644</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2063746209900134</v>
+        <v>1.927735812798955</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.04415995445526644</v>
+        <v>3.233010251067677</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.959134039131409</v>
+        <v>4.448233452135555</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>3.233010251067677</v>
+        <v>4.609487490519238e-18</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.448233452135555</v>
+        <v>16525575216.59979</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>4.609487490519238e-18</v>
+        <v>7.266741062655804e-09</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>16525575216.59979</v>
+        <v>1258.826309473864</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>7.266741062655804e-09</v>
+        <v>9.170155798765782e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>1258.826309473864</v>
+        <v>12.35430190334365</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>9.170155798765782e-05</v>
+        <v>1.045540727013495</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>12.35430190334365</v>
+        <v>0.01399629650883717</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.045540727013495</v>
+        <v>5.437554925567375</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01399629650883717</v>
+        <v>0.9597738314694088</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>5.437554925567375</v>
+        <v>0.8687123562308376</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9597738314694088</v>
+        <v>258</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.8687123562308376</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>258</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>7.543704179698629</v>
       </c>
     </row>
@@ -7854,72 +7746,66 @@
         <v>3.362630842360718e-09</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.609540508669787</v>
+        <v>1.407636652292916e-08</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.3398308228852471</v>
+        <v>1.432158342144216e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.407636652292916e-08</v>
+        <v>-0.05080551730989332</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.432158342144216e-06</v>
+        <v>0.1773647327429629</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05080551730989332</v>
+        <v>0.03400317538807177</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1773647327429629</v>
+        <v>1.931478821167703</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.03400317538807177</v>
+        <v>3.223648354061251</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.959669772451205</v>
+        <v>4.481575790502223</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>3.223648354061251</v>
+        <v>4.541154663878501e-18</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.481575790502223</v>
+        <v>16919760892.65314</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>4.541154663878501e-18</v>
+        <v>7.11594779336341e-09</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>16919760892.65314</v>
+        <v>1300.034076559291</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>7.11594779336341e-09</v>
+        <v>9.678410574735113e-05</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>1300.034076559291</v>
+        <v>10.93546406248231</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>9.678410574735113e-05</v>
+        <v>1.210846866835983</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>10.93546406248231</v>
+        <v>0.01157386672428894</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.210846866835983</v>
+        <v>5.327340987523035</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01157386672428894</v>
+        <v>0.9605724528100132</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>5.327340987523035</v>
+        <v>0.8345579525922479</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9605724528100132</v>
+        <v>268</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.8345579525922479</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>268</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>6.712946171627021</v>
       </c>
     </row>
@@ -7934,72 +7820,66 @@
         <v>3.329515620246942e-09</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.6279160605393479</v>
+        <v>1.407636652292916e-08</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.4920769773395066</v>
+        <v>1.431969633521894e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.407636652292916e-08</v>
+        <v>-0.06117498982178304</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.431969633521894e-06</v>
+        <v>0.1557478438592065</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.06117498982178304</v>
+        <v>0.02798563343134754</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1557478438592065</v>
+        <v>1.928878953762991</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.02798563343134754</v>
+        <v>2.906030527462971</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.957892698980933</v>
+        <v>4.692788116458018</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.906030527462971</v>
+        <v>4.141578453532158e-18</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.692788116458018</v>
+        <v>18580972592.59908</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>4.141578453532158e-18</v>
+        <v>6.477773817684821e-09</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>18580972592.59908</v>
+        <v>1429.890490991015</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>6.477773817684821e-09</v>
+        <v>9.682491486338932e-05</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>1429.890490991015</v>
+        <v>9.62138682769061</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>9.682491486338932e-05</v>
+        <v>1.317711188555752</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.62138682769061</v>
+        <v>0.008963187374367871</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.317711188555752</v>
+        <v>5.168747682392098</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.008963187374367871</v>
+        <v>0.9603245110083567</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>5.168747682392098</v>
+        <v>0.8396329340992206</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9603245110083567</v>
+        <v>304</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.8396329340992206</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>304</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>5.897208823531577</v>
       </c>
     </row>
@@ -8014,72 +7894,66 @@
         <v>3.225177767633594e-09</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.5872312495247245</v>
+        <v>1.407636652292916e-08</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.5844395866813348</v>
+        <v>1.431756899950177e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.407636652292916e-08</v>
+        <v>-0.06769879671975189</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.431756899950177e-06</v>
+        <v>0.1535184739918531</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.06769879671975189</v>
+        <v>0.02815072319099966</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1535184739918531</v>
+        <v>1.928552999187933</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.02815072319099966</v>
+        <v>2.894575278872514</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.957727078783085</v>
+        <v>4.997685257563516</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.894575278872514</v>
+        <v>3.325595620825056e-18</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.997685257563516</v>
+        <v>23112244814.31521</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>3.325595620825056e-18</v>
+        <v>5.209469647244147e-09</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>23112244814.31521</v>
+        <v>1776.452901953164</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>5.209469647244147e-09</v>
+        <v>9.535255174631059e-05</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>1776.452901953164</v>
+        <v>10.04260833862256</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>9.535255174631059e-05</v>
+        <v>1.151573397536771</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>10.04260833862256</v>
+        <v>0.009616684560644418</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.151573397536771</v>
+        <v>4.984688573979654</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.009616684560644418</v>
+        <v>0.9608471557770568</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>4.984688573979654</v>
+        <v>0.8482876691337256</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9608471557770568</v>
+        <v>332</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.8482876691337256</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>332</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>5.53540490896021</v>
       </c>
     </row>
@@ -8094,72 +7968,66 @@
         <v>3.082004792343527e-09</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.4784810410431408</v>
+        <v>1.396219053780372e-08</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.5142731181269351</v>
+        <v>1.431538083646052e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.396219053780372e-08</v>
+        <v>-0.0705119152871538</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.431538083646052e-06</v>
+        <v>0.1605369922690547</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.0705119152871538</v>
+        <v>0.03074377010913979</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1605369922690547</v>
+        <v>1.929328532735839</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.03074377010913979</v>
+        <v>3.070294524379642</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.955453950336033</v>
+        <v>5.513525873790028</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>3.070294524379642</v>
+        <v>2.732426000969532e-18</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>5.513525873790028</v>
+        <v>28187720104.74736</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2.732426000969532e-18</v>
+        <v>4.268863023367806e-09</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>28187720104.74736</v>
+        <v>2171.04242480308</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>4.268863023367806e-09</v>
+        <v>9.866739126165637e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>2171.04242480308</v>
+        <v>11.03077172385812</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>9.866739126165637e-05</v>
+        <v>1.079285164828106</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>11.03077172385812</v>
+        <v>0.01200564341650297</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.079285164828106</v>
+        <v>4.844903494484872</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01200564341650297</v>
+        <v>0.9621837369022946</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>4.844903494484872</v>
+        <v>0.8510233713909421</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9621837369022946</v>
+        <v>350</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.8510233713909421</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>350</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>5.529591160833686</v>
       </c>
     </row>
@@ -8174,72 +8042,66 @@
         <v>2.931436581569905e-09</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.3232435818326828</v>
+        <v>1.34498331446533e-08</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.3030299690773086</v>
+        <v>1.431324459337641e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.34498331446533e-08</v>
+        <v>-0.07149367550174833</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.431324459337641e-06</v>
+        <v>0.1684098376993657</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.07149367550174833</v>
+        <v>0.03347109230403612</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1684098376993657</v>
+        <v>1.926569460038924</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.03347109230403612</v>
+        <v>3.199876309681458</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.954640279035963</v>
+        <v>5.650070806392359</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>3.199876309681458</v>
+        <v>2.556115641927926e-18</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>5.650070806392359</v>
+        <v>30665884477.91423</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.556115641927926e-18</v>
+        <v>3.930322167314768e-09</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>30665884477.91423</v>
+        <v>2403.762128658368</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>3.930322167314768e-09</v>
+        <v>9.432294660760085e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>2403.762128658368</v>
+        <v>11.21003458687647</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>9.432294660760085e-05</v>
+        <v>1.072764020378529</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>11.21003458687647</v>
+        <v>0.01185308133648047</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.072764020378529</v>
+        <v>5.008621306531381</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01185308133648047</v>
+        <v>0.9638712154644692</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>5.008621306531381</v>
+        <v>0.8379599118361553</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9638712154644692</v>
+        <v>366</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.8379599118361553</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>366</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>5.980109458859181</v>
       </c>
     </row>
@@ -8254,72 +8116,66 @@
         <v>2.789094197272319e-09</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.1370985332135011</v>
+        <v>1.276993111923004e-08</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.02213436503662303</v>
+        <v>1.431119365038392e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.276993111923004e-08</v>
+        <v>-0.07180578972321788</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.431119365038392e-06</v>
+        <v>0.1756663393747571</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.07180578972321788</v>
+        <v>0.03601028215418493</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1756663393747571</v>
+        <v>1.93070412307617</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.03601028215418493</v>
+        <v>3.843595954450191</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.956768253438884</v>
+        <v>5.602431499888294</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>3.843595954450191</v>
+        <v>2.599771439696989e-18</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>5.602431499888294</v>
+        <v>32004273507.41977</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>2.599771439696989e-18</v>
+        <v>3.78753723126586e-09</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>32004273507.41977</v>
+        <v>2662.877050851378</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>3.78753723126586e-09</v>
+        <v>9.91805735862936e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>2662.877050851378</v>
+        <v>9.649668319105713</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>9.91805735862936e-05</v>
+        <v>1.385880797362453</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.649668319105713</v>
+        <v>0.009235308076084778</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.385880797362453</v>
+        <v>5.151749420691902</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.009235308076084778</v>
+        <v>0.9637919837757368</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>5.151749420691902</v>
+        <v>0.8296715713935559</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9637919837757368</v>
+        <v>378</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.8296715713935559</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>378</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>5.913236215180339</v>
       </c>
     </row>
@@ -8334,72 +8190,66 @@
         <v>2.665010954406996e-09</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.05635157333470415</v>
+        <v>1.190465402566382e-08</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.4099320810992815</v>
+        <v>1.430925262241222e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.190465402566382e-08</v>
+        <v>-0.07025335674471103</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.430925262241222e-06</v>
+        <v>0.1810219077243065</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.07025335674471103</v>
+        <v>0.03769699382636792</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1810219077243065</v>
+        <v>1.934051176057971</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.03769699382636792</v>
+        <v>3.81426448357819</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.95794207166608</v>
+        <v>5.594561404789017</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>3.81426448357819</v>
+        <v>2.607090991044904e-18</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>5.594561404789017</v>
+        <v>31996701187.91115</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>2.607090991044904e-18</v>
+        <v>3.788657437130732e-09</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>31996701187.91115</v>
+        <v>2669.110783790975</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>3.788657437130732e-09</v>
+        <v>0.0001099266665269752</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>2669.110783790975</v>
+        <v>8.41566504167573</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001099266665269752</v>
+        <v>1.70347759115322</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.41566504167573</v>
+        <v>0.00778538226308483</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.70347759115322</v>
+        <v>4.98874289643534</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.00778538226308483</v>
+        <v>0.9636101535437587</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>4.98874289643534</v>
+        <v>0.8344720610587898</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9636101535437587</v>
+        <v>336</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.8344720610587898</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>336</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>5.256073919520155</v>
       </c>
     </row>
@@ -8776,7 +8626,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.281068087680268</v>
+        <v>1.29101126385837</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.484213190889045</v>
@@ -8865,7 +8715,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.282268800483958</v>
+        <v>1.295159307652024</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.533464006784217</v>
@@ -8954,7 +8804,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.310820753542178</v>
+        <v>1.326857194641431</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.68632066579401</v>
@@ -9043,7 +8893,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.318898452501836</v>
+        <v>1.329340824322006</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.227308372794023</v>
@@ -9132,7 +8982,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.323173984725821</v>
+        <v>1.340026780852721</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.370172137416253</v>
@@ -9221,7 +9071,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.321926275951205</v>
+        <v>1.341546323298849</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.395690851118712</v>
@@ -9310,7 +9160,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.323980439577749</v>
+        <v>1.343767066097573</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.378894688887496</v>
@@ -9399,7 +9249,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.326677665050303</v>
+        <v>1.346210496656439</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.363532606961948</v>
@@ -9488,7 +9338,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.342792368213565</v>
+        <v>1.357086969690835</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.375128549781225</v>
@@ -9577,7 +9427,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.346130591270272</v>
+        <v>1.362632887756717</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.208170782685543</v>
@@ -9666,7 +9516,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.346691721174295</v>
+        <v>1.365179311371383</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.133442042525645</v>
@@ -9755,7 +9605,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.365046837144115</v>
+        <v>1.383296966437615</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.269586117380537</v>
@@ -9844,7 +9694,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.365556480285289</v>
+        <v>1.386434610343682</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.371584908697421</v>
@@ -9933,7 +9783,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.371245890566104</v>
+        <v>1.390256372229254</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.211699837920699</v>
@@ -10022,7 +9872,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.372040771921873</v>
+        <v>1.389829573609507</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.925751851160316</v>
@@ -10111,7 +9961,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.381437996234573</v>
+        <v>1.40562890417786</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.032992518173407</v>
@@ -10200,7 +10050,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.400791002694184</v>
+        <v>1.427737584794928</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.284833451671894</v>
@@ -10289,7 +10139,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.398147148346724</v>
+        <v>1.421554838764571</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.0677085618621</v>
@@ -10378,7 +10228,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.433761991335858</v>
+        <v>1.460373381775907</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.017290154504872</v>
@@ -10467,7 +10317,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.453380726894453</v>
+        <v>1.479027263504836</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.27817852353349</v>
@@ -10556,7 +10406,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.47701824079574</v>
+        <v>1.502398901201258</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.255497047600796</v>
@@ -10645,7 +10495,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.48416184318155</v>
+        <v>1.509988713037661</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.118914175709123</v>
@@ -10734,7 +10584,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.489266426479083</v>
+        <v>1.514496151480319</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.221853309426062</v>
@@ -10823,7 +10673,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.491500632415046</v>
+        <v>1.521809278201103</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.142622347526632</v>
@@ -10912,7 +10762,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.493236892192719</v>
+        <v>1.525349955517154</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.2578581264109</v>
@@ -11001,7 +10851,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.546413513867085</v>
+        <v>1.57803234798077</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.383897977381918</v>
@@ -11090,7 +10940,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.568882962834611</v>
+        <v>1.601904300297018</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.222279653532199</v>
@@ -11179,7 +11029,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.583895108779435</v>
+        <v>1.61944827806331</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.419252277472229</v>
@@ -11268,7 +11118,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.5381435470196</v>
+        <v>1.573609783667275</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.297442944768187</v>
@@ -11357,7 +11207,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.566324695547288</v>
+        <v>1.603254348673752</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.129008146426147</v>
@@ -11446,7 +11296,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.567131398553523</v>
+        <v>1.602876885034158</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.161132635567038</v>
@@ -11535,7 +11385,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.545401407358282</v>
+        <v>1.579636989279771</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.270969577857065</v>
@@ -11624,7 +11474,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.521529389453518</v>
+        <v>1.557024321318451</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.207734552422578</v>
@@ -11713,7 +11563,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.46958039861837</v>
+        <v>1.505544695666836</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.352898883404889</v>
@@ -11802,7 +11652,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.447938048242144</v>
+        <v>1.479118139778151</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.364285164521922</v>
@@ -11891,7 +11741,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.401835835050044</v>
+        <v>1.430158076853835</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.456063757623133</v>
@@ -11980,7 +11830,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.404304649731148</v>
+        <v>1.431921104355776</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.419525096989767</v>
@@ -12069,7 +11919,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.384209324821601</v>
+        <v>1.411590776404747</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.352982661920519</v>
@@ -12158,7 +12008,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.368917978143315</v>
+        <v>1.393083903073848</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.429093328798656</v>
@@ -12247,7 +12097,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.364398002541373</v>
+        <v>1.385531899389064</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.436979433344857</v>
@@ -12336,7 +12186,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.348257590446032</v>
+        <v>1.367117922670344</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.522227310643346</v>
@@ -12425,7 +12275,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.332740662262928</v>
+        <v>1.350959650412582</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.450659621876288</v>
@@ -12514,7 +12364,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.32271652569025</v>
+        <v>1.339183911191073</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.452743612498748</v>
@@ -12603,7 +12453,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.328952441548399</v>
+        <v>1.344009329308869</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.465733826705315</v>
@@ -12692,7 +12542,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.317434661429701</v>
+        <v>1.330457437051472</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.479602844359694</v>
@@ -12781,7 +12631,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.319621602491347</v>
+        <v>1.330257156868433</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.466228586347969</v>
@@ -12870,7 +12720,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.324513779946449</v>
+        <v>1.338233062815271</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.510821358586315</v>
@@ -12959,7 +12809,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.348726737797037</v>
+        <v>1.360948124199442</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.119722660455621</v>
@@ -13048,7 +12898,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.360566800178468</v>
+        <v>1.37674864123529</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.367364178660996</v>
@@ -13137,7 +12987,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.364665686263006</v>
+        <v>1.382878946377835</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.223386510026744</v>
@@ -13226,7 +13076,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.381126258176459</v>
+        <v>1.401055854345045</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.456678580224979</v>
@@ -13315,7 +13165,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.390012999708059</v>
+        <v>1.407574005151729</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.134026121863859</v>
@@ -13404,7 +13254,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.410868591487886</v>
+        <v>1.432699573867631</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.475723514725165</v>
@@ -13493,7 +13343,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.412147934824795</v>
+        <v>1.432962184612159</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.424605586388004</v>
@@ -13582,7 +13432,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.416527663596493</v>
+        <v>1.439244442472049</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.524189841416862</v>
@@ -13671,7 +13521,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.447830338570481</v>
+        <v>1.472349519268861</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.217897224758104</v>
@@ -13760,7 +13610,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.451049029985948</v>
+        <v>1.47644541028711</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.502180014504026</v>
@@ -13849,7 +13699,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.471224527893989</v>
+        <v>1.499114540475465</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.298761791673871</v>
@@ -13938,7 +13788,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.472902179600313</v>
+        <v>1.502157041186945</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.512298049138262</v>
@@ -14027,7 +13877,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.495195535617251</v>
+        <v>1.518301486973581</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.440424818412005</v>
@@ -14116,7 +13966,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.443159717254023</v>
+        <v>1.472789017173931</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.216637187658585</v>
@@ -14205,7 +14055,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.425972301510253</v>
+        <v>1.456508679060624</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.50737966559848</v>
@@ -14294,7 +14144,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.402271838059943</v>
+        <v>1.43609778950692</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.264261400649322</v>
@@ -14383,7 +14233,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.418106028157224</v>
+        <v>1.454312417861007</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.520708943938943</v>
@@ -14472,7 +14322,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.432794938668144</v>
+        <v>1.464676843722719</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.064717685284172</v>
@@ -14561,7 +14411,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.443593966128635</v>
+        <v>1.479559991968842</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.370069567213283</v>
@@ -14650,7 +14500,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.432576774481994</v>
+        <v>1.470555792160826</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.474383037489673</v>
@@ -14739,7 +14589,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.41488996567902</v>
+        <v>1.449801185297309</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.420673285910625</v>
@@ -15025,7 +14875,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.337811081717613</v>
+        <v>1.337522007847272</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.691444285853109</v>
@@ -15114,7 +14964,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.256646915419362</v>
+        <v>1.262444938772551</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.717786457012461</v>
@@ -15203,7 +15053,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.239579309587782</v>
+        <v>1.243737664160675</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.782492614873717</v>
@@ -15292,7 +15142,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.231208003152703</v>
+        <v>1.23678320308962</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.764422987465134</v>
@@ -15381,7 +15231,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.228725750376223</v>
+        <v>1.232309433972473</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.763000291074539</v>
@@ -15470,7 +15320,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.216593130936461</v>
+        <v>1.220533010219182</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.752335725677172</v>
@@ -15559,7 +15409,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.2089798658985</v>
+        <v>1.211753686067628</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.75913786267759</v>
@@ -15648,7 +15498,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.203206021804129</v>
+        <v>1.20672060252668</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.764573957955984</v>
@@ -15737,7 +15587,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.194175515173562</v>
+        <v>1.197535523089976</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.760245854676295</v>
@@ -15826,7 +15676,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.188093525163818</v>
+        <v>1.191718810853691</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.752545453575101</v>
@@ -15915,7 +15765,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.18483879673358</v>
+        <v>1.189786602664733</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.754672293704358</v>
@@ -16004,7 +15854,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.182602547370205</v>
+        <v>1.187802649378529</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.750863652526819</v>
@@ -16093,7 +15943,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.182870610079167</v>
+        <v>1.188313402190168</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.7494797427865</v>
@@ -16182,7 +16032,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.168547661427336</v>
+        <v>1.170754304561551</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.717597593886348</v>
@@ -16271,7 +16121,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.146999702649254</v>
+        <v>1.144903152267868</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.648629932076605</v>
@@ -16360,7 +16210,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.1771286081818</v>
+        <v>1.179916948131664</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.44089457541789</v>
@@ -16449,7 +16299,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.196740543614818</v>
+        <v>1.198024084567958</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.630499899763675</v>
@@ -16538,7 +16388,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.257569869071673</v>
+        <v>1.263950699617193</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.968400775273022</v>
@@ -16627,7 +16477,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.234658553526885</v>
+        <v>1.237531456885532</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.909136245482221</v>
@@ -16716,7 +16566,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.236607440267121</v>
+        <v>1.242872031545691</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.881037777847019</v>
@@ -16805,7 +16655,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.238841012320756</v>
+        <v>1.244016482211146</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.911468117652917</v>
@@ -16894,7 +16744,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.240444721904329</v>
+        <v>1.236639419528643</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.845792271199484</v>
@@ -16983,7 +16833,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.235911336879903</v>
+        <v>1.239866011611946</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.867408920024134</v>
@@ -17072,7 +16922,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.232168243199269</v>
+        <v>1.239258590544609</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.848476826750899</v>
@@ -17161,7 +17011,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.222774099879057</v>
+        <v>1.226321325430304</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.854793682082725</v>
@@ -17250,7 +17100,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.20792105132648</v>
+        <v>1.213635608897349</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.83873523647088</v>
@@ -17339,7 +17189,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.208369366358262</v>
+        <v>1.214446492075115</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.847323449938195</v>
@@ -17428,7 +17278,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.209142319488058</v>
+        <v>1.215268673848934</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.840321017821596</v>
@@ -17517,7 +17367,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.213703497449059</v>
+        <v>1.212045832764841</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.821476834243674</v>
@@ -17606,7 +17456,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.205713951562384</v>
+        <v>1.21313050727985</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.766912702468557</v>
@@ -17695,7 +17545,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.207208159389711</v>
+        <v>1.21205654202867</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.82750650412718</v>
@@ -17784,7 +17634,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.224749505658214</v>
+        <v>1.233065439705648</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.767751141632195</v>
@@ -17873,7 +17723,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.231062918632952</v>
+        <v>1.237889637075325</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.808421064278801</v>
@@ -17962,7 +17812,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.307560015029026</v>
+        <v>1.305187646738412</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.880209988458471</v>
@@ -18051,7 +17901,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.280356204327735</v>
+        <v>1.264970386354409</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.007254076729161</v>
@@ -18140,7 +17990,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.280149404793637</v>
+        <v>1.26098067388574</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.0218889524893</v>
@@ -18229,7 +18079,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.307421473024106</v>
+        <v>1.285683329881632</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.91891833373855</v>
@@ -18318,7 +18168,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.309419189859642</v>
+        <v>1.288224098294653</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.981664358336925</v>
@@ -18407,7 +18257,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.302145780076657</v>
+        <v>1.281386904791522</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.997239717010815</v>
@@ -18496,7 +18346,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.303732823514254</v>
+        <v>1.27990426827802</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.943599526467501</v>
@@ -18585,7 +18435,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.301102008193579</v>
+        <v>1.276212793948102</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.050543132270277</v>
@@ -18674,7 +18524,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.296007671922651</v>
+        <v>1.276446233871985</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.066997107073312</v>
@@ -18763,7 +18613,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.294934012965336</v>
+        <v>1.275913701791881</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.047737796924398</v>
@@ -18852,7 +18702,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.314598672622785</v>
+        <v>1.293288223473232</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.02421964678923</v>
@@ -18941,7 +18791,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.313997148553</v>
+        <v>1.292315874190334</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.013551716465831</v>
@@ -19030,7 +18880,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.315796438740953</v>
+        <v>1.293470994827352</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.021893333237831</v>
@@ -19119,7 +18969,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.308434162047923</v>
+        <v>1.285065326848195</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.000792991167119</v>
@@ -19208,7 +19058,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.311397704603483</v>
+        <v>1.287534503380723</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.976818271186508</v>
@@ -19297,7 +19147,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.305734191434242</v>
+        <v>1.302661708431009</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.624203060019459</v>
@@ -19386,7 +19236,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.328989354349808</v>
+        <v>1.324975342493778</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.026982819926995</v>
@@ -19475,7 +19325,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.313983580102369</v>
+        <v>1.316812500453284</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.007638413287895</v>
@@ -19564,7 +19414,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.259366235451185</v>
+        <v>1.259227506144016</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.785352043021691</v>
@@ -19653,7 +19503,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.256755691960396</v>
+        <v>1.259344716201672</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.713155440831219</v>
@@ -19742,7 +19592,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.267138738443446</v>
+        <v>1.273127693953666</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.76426815053808</v>
@@ -19831,7 +19681,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.300734143615937</v>
+        <v>1.305041868784676</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.732210476992299</v>
@@ -19920,7 +19770,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.322417513726516</v>
+        <v>1.330664475304654</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.60961804072364</v>
@@ -20009,7 +19859,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.306065509826929</v>
+        <v>1.309371237116969</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.653795325959842</v>
@@ -20098,7 +19948,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.305544001509998</v>
+        <v>1.307682386345728</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.65665033823026</v>
@@ -20187,7 +20037,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.312778915653132</v>
+        <v>1.313692843743223</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.685264692848394</v>
@@ -20276,7 +20126,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.31470995728676</v>
+        <v>1.319192845502431</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.666806005566299</v>
@@ -20365,7 +20215,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.311040902619356</v>
+        <v>1.318688599709274</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.665752220941181</v>
@@ -20454,7 +20304,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.30125671874966</v>
+        <v>1.302858817694669</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.684830389974808</v>
@@ -20543,7 +20393,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.281313302750476</v>
+        <v>1.284703759749251</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.688598900136704</v>
@@ -20632,7 +20482,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.262329636329156</v>
+        <v>1.268133610610918</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.688378725657281</v>
@@ -20721,7 +20571,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.250284552615875</v>
+        <v>1.255753589114819</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.693505803190464</v>
@@ -20810,7 +20660,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.280075304433615</v>
+        <v>1.283466833609107</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.567188090183673</v>
@@ -20899,7 +20749,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.351333251233023</v>
+        <v>1.354570563262167</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.872049300110622</v>
@@ -20988,7 +20838,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.337935123035065</v>
+        <v>1.340467979332442</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.979594925452908</v>
@@ -21274,7 +21124,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.565013130017959</v>
+        <v>1.586472441808289</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.306798727800419</v>
@@ -21363,7 +21213,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.523785450349127</v>
+        <v>1.557754899003191</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.26470940191214</v>
@@ -21452,7 +21302,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.510882326456659</v>
+        <v>1.542440528822623</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.424379851689259</v>
@@ -21541,7 +21391,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.50362559679551</v>
+        <v>1.538219616727883</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.318092897270157</v>
@@ -21630,7 +21480,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.502992604190999</v>
+        <v>1.537240827719697</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.386148142228106</v>
@@ -21719,7 +21569,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.50295187331669</v>
+        <v>1.53919435848446</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.337272086700469</v>
@@ -21808,7 +21658,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.49797791549076</v>
+        <v>1.536328404984468</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.308125391254584</v>
@@ -21897,7 +21747,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.497472447682597</v>
+        <v>1.536989976343114</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.318222969352555</v>
@@ -21986,7 +21836,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.490405007434213</v>
+        <v>1.526652549160635</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.321901704511966</v>
@@ -22075,7 +21925,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.478393504925544</v>
+        <v>1.51814207710099</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.282923349327578</v>
@@ -22164,7 +22014,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.4084515876528</v>
+        <v>1.444850202041541</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.919210601608273</v>
@@ -22253,7 +22103,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.406745164783867</v>
+        <v>1.444412186191514</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.922078859381143</v>
@@ -22342,7 +22192,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.407422249877592</v>
+        <v>1.44506220859113</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.924003999480139</v>
@@ -22431,7 +22281,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.392595868922593</v>
+        <v>1.424634515803336</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.873087755068028</v>
@@ -22520,7 +22370,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.344239726468865</v>
+        <v>1.367422484221001</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.689074725987678</v>
@@ -22609,7 +22459,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.373191015576472</v>
+        <v>1.40263322937013</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.619951190189452</v>
@@ -22698,7 +22548,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.387823020004775</v>
+        <v>1.415354490939895</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.724548320513251</v>
@@ -22787,7 +22637,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.414966730662393</v>
+        <v>1.440471670111617</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.669980271185834</v>
@@ -22876,7 +22726,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.407576865036586</v>
+        <v>1.430787879260977</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.705124588698073</v>
@@ -22965,7 +22815,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.416237226746304</v>
+        <v>1.440810010875374</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.709985322056928</v>
@@ -23054,7 +22904,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.419390894158531</v>
+        <v>1.443049804633548</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.703691248873211</v>
@@ -23143,7 +22993,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.409304698694157</v>
+        <v>1.426822273410224</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.6875547656992</v>
@@ -23232,7 +23082,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.407535418190873</v>
+        <v>1.425854264513008</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.680925969851054</v>
@@ -23321,7 +23171,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.407039659681434</v>
+        <v>1.425286399435637</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.692166317448667</v>
@@ -23410,7 +23260,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.411358815632479</v>
+        <v>1.425992840663754</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.7020381653371</v>
@@ -23499,7 +23349,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.533452401313079</v>
+        <v>1.555291212497596</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.419157737930781</v>
@@ -23588,7 +23438,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.545526180798865</v>
+        <v>1.569342032391604</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.470235751110098</v>
@@ -23677,7 +23527,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.54366688341911</v>
+        <v>1.568940040410631</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.479788688233045</v>
@@ -23766,7 +23616,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.554216887920605</v>
+        <v>1.58369292113762</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.631301231334023</v>
@@ -23855,7 +23705,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.576108071818497</v>
+        <v>1.605467312212347</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.380649087832821</v>
@@ -23944,7 +23794,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.574009953222588</v>
+        <v>1.601801002041928</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.402608633309268</v>
@@ -24033,7 +23883,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.582555682688074</v>
+        <v>1.606843069464739</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.325257064043861</v>
@@ -24122,7 +23972,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.582514549703426</v>
+        <v>1.607350355325512</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.447385189162053</v>
@@ -24211,7 +24061,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.530047850150114</v>
+        <v>1.548595587925501</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.882656295900826</v>
@@ -24300,7 +24150,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.508628616217942</v>
+        <v>1.526237174000026</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.974981860125795</v>
@@ -24389,7 +24239,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.484711278871409</v>
+        <v>1.498334619082578</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.980393642625983</v>
@@ -24478,7 +24328,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.509222042191469</v>
+        <v>1.521580631061232</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.953822979538929</v>
@@ -24567,7 +24417,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.506740935670165</v>
+        <v>1.518438337858276</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.98831881177881</v>
@@ -24656,7 +24506,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.49970670713618</v>
+        <v>1.512741791665127</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.986994560119822</v>
@@ -24745,7 +24595,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.491326165449255</v>
+        <v>1.503014293269222</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.033018344326546</v>
@@ -24834,7 +24684,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.486761079415456</v>
+        <v>1.498704249286316</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.023408398022968</v>
@@ -24923,7 +24773,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.489817145872013</v>
+        <v>1.500805049051264</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.043762662754683</v>
@@ -25012,7 +24862,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.489841624686371</v>
+        <v>1.501491648062699</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.054207147325371</v>
@@ -25101,7 +24951,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.48545924317483</v>
+        <v>1.49398393937278</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.996505305324872</v>
@@ -25190,7 +25040,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.477194413983183</v>
+        <v>1.484224833589045</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.979368296655089</v>
@@ -25279,7 +25129,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.480785159326365</v>
+        <v>1.486544385185647</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.982888826173488</v>
@@ -25368,7 +25218,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.479894371742903</v>
+        <v>1.485593525590192</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.000077643539753</v>
@@ -25457,7 +25307,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.488554246502371</v>
+        <v>1.492219328115774</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.946284934353423</v>
@@ -25546,7 +25396,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.542493834572826</v>
+        <v>1.55440723261081</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.127535203531314</v>
@@ -25635,7 +25485,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.556812858520904</v>
+        <v>1.56407741137335</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.349104897290125</v>
@@ -25724,7 +25574,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.583019336082939</v>
+        <v>1.592907648891227</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.600759779142566</v>
@@ -25813,7 +25663,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.530540410632108</v>
+        <v>1.545342397918849</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.478106736668561</v>
@@ -25902,7 +25752,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.533895962842433</v>
+        <v>1.550477378293787</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.20840618721917</v>
@@ -25991,7 +25841,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.545898913807079</v>
+        <v>1.563078752219968</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.242023263632216</v>
@@ -26080,7 +25930,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.5793769678517</v>
+        <v>1.593660468975467</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.289416539251943</v>
@@ -26169,7 +26019,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.588505311482287</v>
+        <v>1.605672498572651</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.172790318776832</v>
@@ -26258,7 +26108,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.502273910542411</v>
+        <v>1.445602734659708</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.549471200404061</v>
@@ -26347,7 +26197,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.386879936324289</v>
+        <v>1.396250793709207</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.555600163189379</v>
@@ -26436,7 +26286,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.377144797903346</v>
+        <v>1.388411486199512</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.550684633946211</v>
@@ -26525,7 +26375,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.379302507984012</v>
+        <v>1.389104742776522</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.546079543470358</v>
@@ -26614,7 +26464,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.374585573587476</v>
+        <v>1.389045208651528</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.551585567107993</v>
@@ -26703,7 +26553,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.359405858319705</v>
+        <v>1.375033744349598</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.555961445689092</v>
@@ -26792,7 +26642,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.351732889482523</v>
+        <v>1.368024586663402</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.55087541842721</v>
@@ -26881,7 +26731,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.350172662015106</v>
+        <v>1.366382587310817</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.547647680514458</v>
@@ -26970,7 +26820,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.352993797569358</v>
+        <v>1.372168597397566</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.556588603356032</v>
@@ -27059,7 +26909,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.363922883661178</v>
+        <v>1.383874264896153</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.530175689928372</v>
@@ -27148,7 +26998,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.391911586731819</v>
+        <v>1.412243064647857</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.558031459325812</v>
@@ -27237,7 +27087,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.38303054748503</v>
+        <v>1.401701681921756</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.545121188254043</v>
@@ -27523,7 +27373,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.595119300259644</v>
+        <v>1.620752102337078</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.570725329104587</v>
@@ -27612,7 +27462,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.577335742930548</v>
+        <v>1.608353453226116</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.560761893514854</v>
@@ -27701,7 +27551,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.580809335547616</v>
+        <v>1.613369387034167</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.618900119794092</v>
@@ -27790,7 +27640,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.582838237548533</v>
+        <v>1.61558845882034</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.527615204283949</v>
@@ -27879,7 +27729,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.595973212394924</v>
+        <v>1.626383266408293</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.529437984486688</v>
@@ -27968,7 +27818,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.587011462816934</v>
+        <v>1.615724270249707</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.591077705559421</v>
@@ -28057,7 +27907,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.577671413286941</v>
+        <v>1.608847441803731</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.560046186785801</v>
@@ -28146,7 +27996,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.5822480756497</v>
+        <v>1.613271270305619</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.588354613048636</v>
@@ -28235,7 +28085,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.578906599424314</v>
+        <v>1.6077884870724</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.510745197297276</v>
@@ -28324,7 +28174,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.564301673791364</v>
+        <v>1.593025260108294</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.473919146426385</v>
@@ -28413,7 +28263,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.560746771997117</v>
+        <v>1.586233317454114</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.439163942699751</v>
@@ -28502,7 +28352,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.559303904753543</v>
+        <v>1.583892803288479</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.502966353664474</v>
@@ -28591,7 +28441,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.564464823477429</v>
+        <v>1.588475896288462</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.497222758153071</v>
@@ -28680,7 +28530,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.548454686664585</v>
+        <v>1.573216286547153</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.250519410259224</v>
@@ -28769,7 +28619,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.48492463086634</v>
+        <v>1.495693515456376</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.96717890871325</v>
@@ -28858,7 +28708,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.562617600279918</v>
+        <v>1.577568609885173</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.962543740346792</v>
@@ -28947,7 +28797,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.577891974222312</v>
+        <v>1.591965481775435</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.312452351286438</v>
@@ -29036,7 +28886,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.623978165682801</v>
+        <v>1.628630282475034</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.616594442808919</v>
@@ -29125,7 +28975,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.648224752749449</v>
+        <v>1.651735822810046</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.678289109827285</v>
@@ -29214,7 +29064,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.655811695559751</v>
+        <v>1.653876850301362</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.897522703986624</v>
@@ -29303,7 +29153,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.665981659822888</v>
+        <v>1.667884677732222</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.794792909524974</v>
@@ -29392,7 +29242,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.692717740650572</v>
+        <v>1.690132737491866</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.738694100981697</v>
@@ -29481,7 +29331,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.690023260505848</v>
+        <v>1.685655557276271</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.98983909167609</v>
@@ -29570,7 +29420,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.696201720277442</v>
+        <v>1.690094954051659</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.797293504595228</v>
@@ -29659,7 +29509,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.697114495138754</v>
+        <v>1.695041845356582</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.761542221176541</v>
@@ -29748,7 +29598,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.725692032311147</v>
+        <v>1.721411733125686</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.231082078924723</v>
@@ -29837,7 +29687,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.736899500297463</v>
+        <v>1.736457746783593</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.012477676690407</v>
@@ -29926,7 +29776,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.738719058825558</v>
+        <v>1.740951129324448</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.080473371164037</v>
@@ -30015,7 +29865,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.718804691742784</v>
+        <v>1.72139954759028</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.957281846359825</v>
@@ -30104,7 +29954,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.723351675019337</v>
+        <v>1.727399551611708</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.949009552015072</v>
@@ -30193,7 +30043,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.726029367093691</v>
+        <v>1.724695754256306</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.97012784308784</v>
@@ -30282,7 +30132,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.720166682905992</v>
+        <v>1.715642890052151</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.975212374608587</v>
@@ -30371,7 +30221,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.724828255616133</v>
+        <v>1.71270650629996</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.995388332846355</v>
@@ -30460,7 +30310,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.667465989341529</v>
+        <v>1.668904551386301</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.132571678654625</v>
@@ -30549,7 +30399,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.656833751620812</v>
+        <v>1.669927294732671</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.246437370164558</v>
@@ -30638,7 +30488,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.635746881847624</v>
+        <v>1.646009333160995</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.312467061888484</v>
@@ -30727,7 +30577,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.635480885125936</v>
+        <v>1.644085769160958</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.313898894631506</v>
@@ -30816,7 +30666,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.625909397918375</v>
+        <v>1.636576905070411</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.31049343654166</v>
@@ -30905,7 +30755,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.612632353950704</v>
+        <v>1.625330650293998</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.269149142679085</v>
@@ -30994,7 +30844,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.612900104058033</v>
+        <v>1.623350953720535</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.304781981876491</v>
@@ -31083,7 +30933,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.610960747022604</v>
+        <v>1.6238464462706</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.32195651334282</v>
@@ -31172,7 +31022,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.610298835135767</v>
+        <v>1.621047586013284</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.330594463206307</v>
@@ -31261,7 +31111,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.608147454793919</v>
+        <v>1.61699360961487</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.32622675118549</v>
@@ -31350,7 +31200,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.606855046640957</v>
+        <v>1.612985200736398</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.43506625435692</v>
@@ -31439,7 +31289,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.602266809552406</v>
+        <v>1.608625419367078</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.445718392875816</v>
@@ -31528,7 +31378,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.60314659961282</v>
+        <v>1.610150284542</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.472353874866368</v>
@@ -31617,7 +31467,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.61373328184924</v>
+        <v>1.620752286383436</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.427997841463402</v>
@@ -31706,7 +31556,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.624162597781128</v>
+        <v>1.629809139788534</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.327834142056948</v>
@@ -31795,7 +31645,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.646598974466581</v>
+        <v>1.647457662083884</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.283393280998149</v>
@@ -31884,7 +31734,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.63598172236693</v>
+        <v>1.622875346940039</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.778088652632714</v>
@@ -31973,7 +31823,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.648735716583404</v>
+        <v>1.634726897260252</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.159682319099099</v>
@@ -32062,7 +31912,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.656548290434957</v>
+        <v>1.643120465396164</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.780201760357421</v>
@@ -32151,7 +32001,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.680223286839194</v>
+        <v>1.66540223901218</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.030614800291243</v>
@@ -32240,7 +32090,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.696549495576978</v>
+        <v>1.681263434901685</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.918762641559017</v>
@@ -32329,7 +32179,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.699253141448474</v>
+        <v>1.683772775153999</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.949697348681078</v>
@@ -32418,7 +32268,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.711114705189231</v>
+        <v>1.686178557645661</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.642062519145369</v>
@@ -32507,7 +32357,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.695556101091791</v>
+        <v>1.664749862763651</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.178480530789168</v>
@@ -32596,7 +32446,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.699678969008916</v>
+        <v>1.676747662274439</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.889506059198681</v>
@@ -32685,7 +32535,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.708377216787919</v>
+        <v>1.684882837670612</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.122221958626046</v>
@@ -32774,7 +32624,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.708822029756955</v>
+        <v>1.686603829319422</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.914831783162246</v>
@@ -32863,7 +32713,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.684702791847228</v>
+        <v>1.671172882243084</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.9308495029012</v>
@@ -32952,7 +32802,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.669082010783184</v>
+        <v>1.654971998284204</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.24672051412333</v>
@@ -33041,7 +32891,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.660485425750212</v>
+        <v>1.6531265242805</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.853094836954599</v>
@@ -33130,7 +32980,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.666003511482359</v>
+        <v>1.665005657428258</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.170341926252232</v>
@@ -33219,7 +33069,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.66780442751254</v>
+        <v>1.667895186102412</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.647594266350357</v>
@@ -33308,7 +33158,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.68062601445778</v>
+        <v>1.685328380634182</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.051507240060666</v>
@@ -33397,7 +33247,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.670368634883263</v>
+        <v>1.671109045388262</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.983968915904045</v>
@@ -33486,7 +33336,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.650269681244923</v>
+        <v>1.655070804983285</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.93317097173621</v>
@@ -33772,7 +33622,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.56175640197891</v>
+        <v>1.5855906367967</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.460323382692327</v>
@@ -33861,7 +33711,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.52005097420941</v>
+        <v>1.553823939164372</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.45504166259938</v>
@@ -33950,7 +33800,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.504492593868607</v>
+        <v>1.538885947486348</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.484612924963556</v>
@@ -34039,7 +33889,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.503713503173418</v>
+        <v>1.539456262485875</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.485237552085762</v>
@@ -34128,7 +33978,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.505045787933288</v>
+        <v>1.538987743732634</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.454086777699808</v>
@@ -34217,7 +34067,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.492287633208347</v>
+        <v>1.526757919093928</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.455884521327275</v>
@@ -34306,7 +34156,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.49088691942557</v>
+        <v>1.527149171511282</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.436911699347005</v>
@@ -34395,7 +34245,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.494391006975058</v>
+        <v>1.534965823039836</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.460124331624876</v>
@@ -34484,7 +34334,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.501282268608779</v>
+        <v>1.540952316453616</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.279973698272066</v>
@@ -34573,7 +34423,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.49930123660264</v>
+        <v>1.541131636997805</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.337258211866921</v>
@@ -34662,7 +34512,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.503496367923977</v>
+        <v>1.544203203187897</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.371948718194085</v>
@@ -34751,7 +34601,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.503649883255145</v>
+        <v>1.542871704532062</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.365637328016364</v>
@@ -34840,7 +34690,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.502883459275691</v>
+        <v>1.542597144599074</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.376097491750777</v>
@@ -34929,7 +34779,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.480627315536613</v>
+        <v>1.510776443283728</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.218625166651902</v>
@@ -35018,7 +34868,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.409141915623409</v>
+        <v>1.423966646498539</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.948730657656504</v>
@@ -35107,7 +34957,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.460223405438051</v>
+        <v>1.480654156952903</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.937584217419171</v>
@@ -35196,7 +35046,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.483901821402336</v>
+        <v>1.495324294426971</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.953771251975387</v>
@@ -35285,7 +35135,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.532593263689708</v>
+        <v>1.536863776442465</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.461633407940265</v>
@@ -35374,7 +35224,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.540674671633661</v>
+        <v>1.542793357080916</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.578137996161894</v>
@@ -35463,7 +35313,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.542620812324994</v>
+        <v>1.540974842082172</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.496934608493203</v>
@@ -35552,7 +35402,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.551213692571917</v>
+        <v>1.550962433934014</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.573823840828533</v>
@@ -35641,7 +35491,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.567196568448765</v>
+        <v>1.56377671862914</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.432591117858456</v>
@@ -35730,7 +35580,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.558893053938367</v>
+        <v>1.550335299546345</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.309041805624331</v>
@@ -35819,7 +35669,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.56151791983222</v>
+        <v>1.548879571355292</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.546697072078895</v>
@@ -35908,7 +35758,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.568933382294259</v>
+        <v>1.553956689901754</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.422698792821597</v>
@@ -35997,7 +35847,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.605119860855037</v>
+        <v>1.582554792413653</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.809256489333892</v>
@@ -36086,7 +35936,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.607565181617754</v>
+        <v>1.583617586356958</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.913685107307351</v>
@@ -36175,7 +36025,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.603868687741684</v>
+        <v>1.573191712553998</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.763207287769963</v>
@@ -36264,7 +36114,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.618985280743218</v>
+        <v>1.590733844376616</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.549030315980682</v>
@@ -36353,7 +36203,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.569311195004303</v>
+        <v>1.557269955417394</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.515578635516052</v>
@@ -36442,7 +36292,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.558397525648709</v>
+        <v>1.545816690531811</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.480317768013107</v>
@@ -36531,7 +36381,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.572679445593896</v>
+        <v>1.552097747529948</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.352045286680649</v>
@@ -36620,7 +36470,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.593330542480827</v>
+        <v>1.566982973411384</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.198862742898331</v>
@@ -36709,7 +36559,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.507016734597242</v>
+        <v>1.503144689684686</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.869353513282453</v>
@@ -36798,7 +36648,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.49270821046228</v>
+        <v>1.502812164528153</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.010214082077537</v>
@@ -36887,7 +36737,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.480374272056397</v>
+        <v>1.496226809756477</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.028539379330252</v>
@@ -36976,7 +36826,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.480254222018952</v>
+        <v>1.496209838334915</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.038461510171514</v>
@@ -37065,7 +36915,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.478328859308958</v>
+        <v>1.494173108621948</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.06086876933994</v>
@@ -37154,7 +37004,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.481267204765822</v>
+        <v>1.493397210932612</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.041945980889232</v>
@@ -37243,7 +37093,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.481821140831886</v>
+        <v>1.493822375951143</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.052812429799692</v>
@@ -37332,7 +37182,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.485196407636124</v>
+        <v>1.499079014171493</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.062272093642044</v>
@@ -37421,7 +37271,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.487762767605944</v>
+        <v>1.500427059914987</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.107111167448442</v>
@@ -37510,7 +37360,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.489330875837434</v>
+        <v>1.503531562799068</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.108798060388298</v>
@@ -37599,7 +37449,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.484313069514717</v>
+        <v>1.496248447494808</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.954202254118593</v>
@@ -37688,7 +37538,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.494945656905414</v>
+        <v>1.505056854921432</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.043035370749454</v>
@@ -37777,7 +37627,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.498094756038732</v>
+        <v>1.508222829328275</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.062230117043269</v>
@@ -37866,7 +37716,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.500129804711291</v>
+        <v>1.513234687321194</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.051747901739892</v>
@@ -37955,7 +37805,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.505787209309923</v>
+        <v>1.512893642807763</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.967490426767602</v>
@@ -38044,7 +37894,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.551418196706745</v>
+        <v>1.562676490431651</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.934628184831669</v>
@@ -38133,7 +37983,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.576946674871309</v>
+        <v>1.5612280186663</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.288894562728823</v>
@@ -38222,7 +38072,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.571173230124189</v>
+        <v>1.550345450463081</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.766872874013178</v>
@@ -38311,7 +38161,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.562976485247454</v>
+        <v>1.543817368736054</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.603521005837005</v>
@@ -38400,7 +38250,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.571587065675506</v>
+        <v>1.554121635551227</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.754262928827565</v>
@@ -38489,7 +38339,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.564944612322265</v>
+        <v>1.552274030335148</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.724208262254719</v>
@@ -38578,7 +38428,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.556150915016112</v>
+        <v>1.547584599104554</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.745367324765272</v>
@@ -38667,7 +38517,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.557539401859761</v>
+        <v>1.539522340917212</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.621192829107622</v>
@@ -38756,7 +38606,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.55420924837604</v>
+        <v>1.530913934953263</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.796740991136095</v>
@@ -38845,7 +38695,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.556842393140415</v>
+        <v>1.539293364382417</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.803917686500749</v>
@@ -38934,7 +38784,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.557506768092887</v>
+        <v>1.540720495935336</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.749471188184741</v>
@@ -39023,7 +38873,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.551899694795951</v>
+        <v>1.531657916294066</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.794894224332324</v>
@@ -39112,7 +38962,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.540150643624525</v>
+        <v>1.526054943621108</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.611545416619897</v>
@@ -39201,7 +39051,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.536302773178438</v>
+        <v>1.522544299187217</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.695198364990165</v>
@@ -39290,7 +39140,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.544729908349161</v>
+        <v>1.530298670879479</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.612627690228257</v>
@@ -39379,7 +39229,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.550381395277752</v>
+        <v>1.53631734784658</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.44339212864715</v>
@@ -39468,7 +39318,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.54962812787158</v>
+        <v>1.538500335658223</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.483389291180243</v>
@@ -39557,7 +39407,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.567742235737363</v>
+        <v>1.559736975672191</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.354958271349261</v>
@@ -39646,7 +39496,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.572557081163844</v>
+        <v>1.562327549170307</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.611624883599399</v>
@@ -39735,7 +39585,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.567590900201359</v>
+        <v>1.55891749244193</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.586920262529229</v>
@@ -40021,7 +39871,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.359244019632275</v>
+        <v>1.386287106413661</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.581255911581068</v>
@@ -40110,7 +39960,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.358841643474155</v>
+        <v>1.389752399825948</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.693309744428984</v>
@@ -40199,7 +40049,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.381866502721021</v>
+        <v>1.415383131346498</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.612518867267686</v>
@@ -40288,7 +40138,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.390302831849603</v>
+        <v>1.419648573303677</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.330607257705411</v>
@@ -40377,7 +40227,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.409605679928274</v>
+        <v>1.444709503462718</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.478428251774527</v>
@@ -40466,7 +40316,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.408757806991683</v>
+        <v>1.443382242927667</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.509942911049899</v>
@@ -40555,7 +40405,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.404066214533435</v>
+        <v>1.43815141814187</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.464396461101129</v>
@@ -40644,7 +40494,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.41093151136931</v>
+        <v>1.444021282700828</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.461530964234882</v>
@@ -40733,7 +40583,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.40183021276132</v>
+        <v>1.427905827420709</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.413013201143371</v>
@@ -40822,7 +40672,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.393888996956341</v>
+        <v>1.418786011481288</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.28703264822297</v>
@@ -40911,7 +40761,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.391990789826462</v>
+        <v>1.416455740039422</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.154356682228792</v>
@@ -41000,7 +40850,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.40767767437058</v>
+        <v>1.429979216503839</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.287545719949006</v>
@@ -41089,7 +40939,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.409703352211354</v>
+        <v>1.434690466527247</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.411283034299702</v>
@@ -41178,7 +41028,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.417845291723546</v>
+        <v>1.436331693571849</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.311676413620818</v>
@@ -41267,7 +41117,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.427979320687071</v>
+        <v>1.445628604066591</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.989856677013919</v>
@@ -41356,7 +41206,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.466765680322738</v>
+        <v>1.489363096081506</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.98285920183566</v>
@@ -41445,7 +41295,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.492407231525359</v>
+        <v>1.517622362214191</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.552008965584018</v>
@@ -41534,7 +41384,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.521865564839649</v>
+        <v>1.543312483848245</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.364453690348473</v>
@@ -41623,7 +41473,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.579298855738105</v>
+        <v>1.600208531045113</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.283326503147098</v>
@@ -41712,7 +41562,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.589732308780481</v>
+        <v>1.612018424767435</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.66919888909761</v>
@@ -41801,7 +41651,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.617184892061957</v>
+        <v>1.63832498820648</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.656724306163979</v>
@@ -41890,7 +41740,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.640329343003879</v>
+        <v>1.660203817899162</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.600585497795958</v>
@@ -41979,7 +41829,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.64668184089687</v>
+        <v>1.666247790344367</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.620714914515534</v>
@@ -42068,7 +41918,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.650492870764781</v>
+        <v>1.674119664772327</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.701437992506722</v>
@@ -42157,7 +42007,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.656550306001353</v>
+        <v>1.680745666885005</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.505134647212473</v>
@@ -42246,7 +42096,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.696383123021306</v>
+        <v>1.720426168608764</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.555712391229656</v>
@@ -42335,7 +42185,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.723175363934072</v>
+        <v>1.749273962787108</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.323238638319363</v>
@@ -42424,7 +42274,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.738568721996358</v>
+        <v>1.764401914411623</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.703394521506632</v>
@@ -42513,7 +42363,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.679339118229867</v>
+        <v>1.706637594567659</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.418186587430917</v>
@@ -42602,7 +42452,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.693531695609947</v>
+        <v>1.725126063406047</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.371364445015259</v>
@@ -42691,7 +42541,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.694203450514967</v>
+        <v>1.723213227393271</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.327591628547481</v>
@@ -42780,7 +42630,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.678017979613848</v>
+        <v>1.70577778134601</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.497835278933108</v>
@@ -42869,7 +42719,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.651739004089026</v>
+        <v>1.675426490021302</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.471186415366909</v>
@@ -42958,7 +42808,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.564820869227452</v>
+        <v>1.588138867035636</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.404064992028789</v>
@@ -43047,7 +42897,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.530129432633809</v>
+        <v>1.543743292462255</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.451753685716281</v>
@@ -43136,7 +42986,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.476074694787786</v>
+        <v>1.489831800240156</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.435868161318351</v>
@@ -43225,7 +43075,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.471441967251169</v>
+        <v>1.482292257121906</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.461997325395883</v>
@@ -43314,7 +43164,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.45193101188006</v>
+        <v>1.462389913134286</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.43912741637409</v>
@@ -43403,7 +43253,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.436212008949948</v>
+        <v>1.444342313559966</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.438336073154473</v>
@@ -43492,7 +43342,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.429264003825233</v>
+        <v>1.434195299910107</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.46359796804531</v>
@@ -43581,7 +43431,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.401446349330481</v>
+        <v>1.406629752547824</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.467436870757556</v>
@@ -43670,7 +43520,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.382920831636918</v>
+        <v>1.389965201312678</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.473185161928555</v>
@@ -43759,7 +43609,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.373024198501867</v>
+        <v>1.378660538272899</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.480664874375575</v>
@@ -43848,7 +43698,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.382374576014107</v>
+        <v>1.387590213908444</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.394784996477368</v>
@@ -43937,7 +43787,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.377074518497669</v>
+        <v>1.381102140846756</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.492966597558499</v>
@@ -44026,7 +43876,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.375369530709011</v>
+        <v>1.378356960948597</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.474663998289739</v>
@@ -44115,7 +43965,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.376894888772094</v>
+        <v>1.383093207740713</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.393907262898283</v>
@@ -44204,7 +44054,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.395098309139821</v>
+        <v>1.399682892736404</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.109637178873265</v>
@@ -44293,7 +44143,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.41680710590779</v>
+        <v>1.430763384025711</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.542405172520223</v>
@@ -44382,7 +44232,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.424302062232152</v>
+        <v>1.441741686093472</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.287504643976044</v>
@@ -44471,7 +44321,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.45215413887993</v>
+        <v>1.471165988548972</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.46962604414527</v>
@@ -44560,7 +44410,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.465446259473807</v>
+        <v>1.485949708075298</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.341922377908412</v>
@@ -44649,7 +44499,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.495259892594971</v>
+        <v>1.520727264175249</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.387211236348596</v>
@@ -44738,7 +44588,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.500563957040824</v>
+        <v>1.529042224406228</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.395715716854844</v>
@@ -44827,7 +44677,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.502101832009867</v>
+        <v>1.532784111842969</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.459012510979284</v>
@@ -44916,7 +44766,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.547865028334968</v>
+        <v>1.580509862201471</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.217615815940956</v>
@@ -45005,7 +44855,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.554392002140552</v>
+        <v>1.582168415071144</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.471704492223469</v>
@@ -45094,7 +44944,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.578624099565876</v>
+        <v>1.608810253268467</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.278798768594627</v>
@@ -45183,7 +45033,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.576976869682165</v>
+        <v>1.60887321173262</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.545236052465267</v>
@@ -45272,7 +45122,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.586108248577403</v>
+        <v>1.608344037896361</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.489221619157098</v>
@@ -45361,7 +45211,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.524533890990192</v>
+        <v>1.551213934050769</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.311246504738492</v>
@@ -45450,7 +45300,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.496307555321845</v>
+        <v>1.524123255463624</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.533825287268786</v>
@@ -45539,7 +45389,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.480523966270407</v>
+        <v>1.514135411463137</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.365371657779837</v>
@@ -45628,7 +45478,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.496705910432013</v>
+        <v>1.532473235013495</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.497605440575974</v>
@@ -45717,7 +45567,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.51292267056931</v>
+        <v>1.548350776165647</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.091533865864295</v>
@@ -45806,7 +45656,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.519128004102462</v>
+        <v>1.561502847220216</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.434390454747856</v>
@@ -45895,7 +45745,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.496517204519767</v>
+        <v>1.540167502458154</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.426191028540826</v>
@@ -45984,7 +45834,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.470385192710538</v>
+        <v>1.511650940973532</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.400844750459424</v>
